--- a/Code/Results/Cases/Case_2_242/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_242/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9818802778766771</v>
+        <v>1.031099476996261</v>
       </c>
       <c r="D2">
-        <v>1.002664538510232</v>
+        <v>1.033059460869538</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9907341297823204</v>
+        <v>1.039549971794471</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035161150542834</v>
+        <v>1.032195244410111</v>
       </c>
       <c r="J2">
-        <v>1.004616791539393</v>
+        <v>1.036237070836587</v>
       </c>
       <c r="K2">
-        <v>1.014086876478985</v>
+        <v>1.03586290053958</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.002324080310986</v>
+        <v>1.042334841754393</v>
       </c>
       <c r="N2">
-        <v>1.006043462614535</v>
+        <v>1.037708646335244</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9900772535063155</v>
+        <v>1.03266120905759</v>
       </c>
       <c r="D3">
-        <v>1.008576674004823</v>
+        <v>1.034189247763477</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9990198467101816</v>
+        <v>1.041198672110288</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037446283141941</v>
+        <v>1.032537926270266</v>
       </c>
       <c r="J3">
-        <v>1.01084212692071</v>
+        <v>1.037437417667727</v>
       </c>
       <c r="K3">
-        <v>1.019100978372704</v>
+        <v>1.03680073182416</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.009665284161933</v>
+        <v>1.043791575183113</v>
       </c>
       <c r="N3">
-        <v>1.01227763868615</v>
+        <v>1.03891069779655</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9951991884508563</v>
+        <v>1.033669303318899</v>
       </c>
       <c r="D4">
-        <v>1.012273818367672</v>
+        <v>1.034918109417741</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.004203496724897</v>
+        <v>1.042263340537683</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038860598141669</v>
+        <v>1.032757334002351</v>
       </c>
       <c r="J4">
-        <v>1.014726501859482</v>
+        <v>1.038211353811081</v>
       </c>
       <c r="K4">
-        <v>1.022226332247748</v>
+        <v>1.037404813188469</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.014251452611628</v>
+        <v>1.044731568400971</v>
       </c>
       <c r="N4">
-        <v>1.01616752988288</v>
+        <v>1.039685733017999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9973116242082258</v>
+        <v>1.034092530392379</v>
       </c>
       <c r="D5">
-        <v>1.01379917393819</v>
+        <v>1.035224006349702</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.006342844158332</v>
+        <v>1.042710423556299</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039440573369862</v>
+        <v>1.032849017922949</v>
       </c>
       <c r="J5">
-        <v>1.016327122360858</v>
+        <v>1.038536062160324</v>
       </c>
       <c r="K5">
-        <v>1.023513362446883</v>
+        <v>1.037658115128601</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.016142619677327</v>
+        <v>1.045126126846363</v>
       </c>
       <c r="N5">
-        <v>1.017770423448961</v>
+        <v>1.040010902490343</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9976639926236284</v>
+        <v>1.034163558635067</v>
       </c>
       <c r="D6">
-        <v>1.014053641304779</v>
+        <v>1.035275337699553</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.006699786211509</v>
+        <v>1.042785461559744</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039537119140373</v>
+        <v>1.032864379586713</v>
       </c>
       <c r="J6">
-        <v>1.016594031619158</v>
+        <v>1.038590543988537</v>
       </c>
       <c r="K6">
-        <v>1.023727929783278</v>
+        <v>1.037700607482237</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.016458059648381</v>
+        <v>1.045192339196916</v>
       </c>
       <c r="N6">
-        <v>1.018037711749022</v>
+        <v>1.040065461689001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.995227571892088</v>
+        <v>1.033674960746918</v>
       </c>
       <c r="D7">
-        <v>1.012294311623182</v>
+        <v>1.034922198847507</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907978915</v>
       </c>
       <c r="F7">
-        <v>1.004232236038068</v>
+        <v>1.042269316445937</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038868404183592</v>
+        <v>1.032758561264584</v>
       </c>
       <c r="J7">
-        <v>1.014748014045126</v>
+        <v>1.03821569513967</v>
       </c>
       <c r="K7">
-        <v>1.022243633126079</v>
+        <v>1.037408200381651</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624459041</v>
       </c>
       <c r="M7">
-        <v>1.014276864277764</v>
+        <v>1.044736842911336</v>
       </c>
       <c r="N7">
-        <v>1.016189072618294</v>
+        <v>1.039690080511773</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9846899307937754</v>
+        <v>1.031627785747098</v>
       </c>
       <c r="D8">
-        <v>1.004690309872717</v>
+        <v>1.033441734397106</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674294</v>
       </c>
       <c r="F8">
-        <v>0.9935728448114018</v>
+        <v>1.040107610003861</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035947243586929</v>
+        <v>1.032311539556074</v>
       </c>
       <c r="J8">
-        <v>1.006751762970458</v>
+        <v>1.036643311976479</v>
       </c>
       <c r="K8">
-        <v>1.015807120558551</v>
+        <v>1.036180420014114</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591053</v>
       </c>
       <c r="M8">
-        <v>1.004840585631908</v>
+        <v>1.042827698432624</v>
       </c>
       <c r="N8">
-        <v>1.008181465949918</v>
+        <v>1.038115464384135</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9645863525329782</v>
+        <v>1.028001137084611</v>
       </c>
       <c r="D9">
-        <v>0.9902154437963868</v>
+        <v>1.03081591638679</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.973290849665552</v>
+        <v>1.036281422448705</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030266752215884</v>
+        <v>1.031505855984688</v>
       </c>
       <c r="J9">
-        <v>0.9914547693830855</v>
+        <v>1.033850990298999</v>
       </c>
       <c r="K9">
-        <v>1.003469288777972</v>
+        <v>1.033995498571133</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9868326569289065</v>
+        <v>1.039443082463413</v>
       </c>
       <c r="N9">
-        <v>0.9928627488770611</v>
+        <v>1.035319177289589</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9499237793949115</v>
+        <v>1.025569723903455</v>
       </c>
       <c r="D10">
-        <v>0.9796931881906482</v>
+        <v>1.029053472604366</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9585391080791623</v>
+        <v>1.033718493103844</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026055941495526</v>
+        <v>1.030956469968395</v>
       </c>
       <c r="J10">
-        <v>0.9802754034395535</v>
+        <v>1.031974400111391</v>
       </c>
       <c r="K10">
-        <v>0.9944390302060153</v>
+        <v>1.032524075292664</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9736995978014685</v>
+        <v>1.037172263087407</v>
       </c>
       <c r="N10">
-        <v>0.981667506951598</v>
+        <v>1.033439922128668</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9432132424400408</v>
+        <v>1.024513502550762</v>
       </c>
       <c r="D11">
-        <v>0.9748893433412096</v>
+        <v>1.028287395052013</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9517986118289222</v>
+        <v>1.032605676725074</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024114224913947</v>
+        <v>1.030715630640543</v>
       </c>
       <c r="J11">
-        <v>0.9751553026256804</v>
+        <v>1.031158128570329</v>
       </c>
       <c r="K11">
-        <v>0.990300872188416</v>
+        <v>1.031883327998885</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.967690618649829</v>
+        <v>1.03618540938221</v>
       </c>
       <c r="N11">
-        <v>0.9765401350072856</v>
+        <v>1.032622491388389</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9406598952855844</v>
+        <v>1.024120650081925</v>
       </c>
       <c r="D12">
-        <v>0.9730636107871367</v>
+        <v>1.02800239134057</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9492356068133946</v>
+        <v>1.0321918548374</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023373365121364</v>
+        <v>1.030625725204026</v>
       </c>
       <c r="J12">
-        <v>0.9732067210712352</v>
+        <v>1.030854363355786</v>
       </c>
       <c r="K12">
-        <v>0.9887257274751441</v>
+        <v>1.031644775309793</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9654045778748522</v>
+        <v>1.035818298327426</v>
       </c>
       <c r="N12">
-        <v>0.9745887862435277</v>
+        <v>1.032318294792399</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9412104616440455</v>
+        <v>1.024204942238097</v>
       </c>
       <c r="D13">
-        <v>0.9734571832535299</v>
+        <v>1.028063546033208</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9497881751500722</v>
+        <v>1.032280642636774</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023533202650124</v>
+        <v>1.030645030509857</v>
       </c>
       <c r="J13">
-        <v>0.9736268994551153</v>
+        <v>1.030919547789059</v>
       </c>
       <c r="K13">
-        <v>0.9890653910724467</v>
+        <v>1.031695970718196</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9658974874256024</v>
+        <v>1.035897069973061</v>
       </c>
       <c r="N13">
-        <v>0.9750095613289078</v>
+        <v>1.032383571795045</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9430034625080969</v>
+        <v>1.024481040028158</v>
       </c>
       <c r="D14">
-        <v>0.9747392982445149</v>
+        <v>1.028263845753244</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9515880024666663</v>
+        <v>1.032571479795479</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024053397129465</v>
+        <v>1.030708208168187</v>
       </c>
       <c r="J14">
-        <v>0.9749952164277667</v>
+        <v>1.031133030841952</v>
       </c>
       <c r="K14">
-        <v>0.990171470638015</v>
+        <v>1.031863620438501</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9675027920766691</v>
+        <v>1.036155075154557</v>
       </c>
       <c r="N14">
-        <v>0.9763798214686082</v>
+        <v>1.03259735801836</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9440999276852733</v>
+        <v>1.024651083037384</v>
       </c>
       <c r="D15">
-        <v>0.9755236331796272</v>
+        <v>1.028387197347261</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.952688874188421</v>
+        <v>1.03275061115884</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024371246358016</v>
+        <v>1.030747074671647</v>
       </c>
       <c r="J15">
-        <v>0.9758319304915493</v>
+        <v>1.031264489533606</v>
       </c>
       <c r="K15">
-        <v>0.9908477966316702</v>
+        <v>1.031966841759899</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9684845283821876</v>
+        <v>1.036313967445877</v>
       </c>
       <c r="N15">
-        <v>0.9772177237623341</v>
+        <v>1.032729003396434</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9503609931067004</v>
+        <v>1.025639748980564</v>
       </c>
       <c r="D16">
-        <v>0.9800064458472936</v>
+        <v>1.029104252237546</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9589785061455111</v>
+        <v>1.033792281592267</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026182162630165</v>
+        <v>1.030972391193527</v>
       </c>
       <c r="J16">
-        <v>0.9806089318745638</v>
+        <v>1.032028494618229</v>
       </c>
       <c r="K16">
-        <v>0.9947085526566758</v>
+        <v>1.032566522808608</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9740911452453614</v>
+        <v>1.037237680937575</v>
       </c>
       <c r="N16">
-        <v>0.9820015090352422</v>
+        <v>1.03349409345591</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9541873805908641</v>
+        <v>1.026258992327354</v>
       </c>
       <c r="D17">
-        <v>0.9827493617038032</v>
+        <v>1.029553251984735</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9628252388158473</v>
+        <v>1.034444867276625</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02728520025776</v>
+        <v>1.03111293358686</v>
       </c>
       <c r="J17">
-        <v>0.9835274929848984</v>
+        <v>1.032506738099716</v>
       </c>
       <c r="K17">
-        <v>0.9970667723421649</v>
+        <v>1.032941714378441</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.9775180605559197</v>
+        <v>1.037816136235337</v>
       </c>
       <c r="N17">
-        <v>0.984924214837117</v>
+        <v>1.033973016097996</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.956384850962312</v>
+        <v>1.026619859035813</v>
       </c>
       <c r="D18">
-        <v>0.9843256791718834</v>
+        <v>1.029814864036049</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9650353977190105</v>
+        <v>1.03482521603226</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027917297075198</v>
+        <v>1.031194625046711</v>
       </c>
       <c r="J18">
-        <v>0.9852032471827906</v>
+        <v>1.0327853335672</v>
       </c>
       <c r="K18">
-        <v>0.9984205703956121</v>
+        <v>1.033160209384191</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.97948625217469</v>
+        <v>1.038153195456741</v>
       </c>
       <c r="N18">
-        <v>0.9866023487981823</v>
+        <v>1.034252007202998</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9571284756720246</v>
+        <v>1.026742850121464</v>
       </c>
       <c r="D19">
-        <v>0.9848592789899809</v>
+        <v>1.029904019425503</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9657834836021628</v>
+        <v>1.034954855777196</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028130962217059</v>
+        <v>1.031222431567065</v>
       </c>
       <c r="J19">
-        <v>0.9857702579313236</v>
+        <v>1.032880267374028</v>
       </c>
       <c r="K19">
-        <v>0.9988786032118563</v>
+        <v>1.033234651768917</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9801523083346908</v>
+        <v>1.038268065980337</v>
       </c>
       <c r="N19">
-        <v>0.987170164767015</v>
+        <v>1.034347075826722</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9537804463376743</v>
+        <v>1.026192587344926</v>
       </c>
       <c r="D20">
-        <v>0.9824575396156014</v>
+        <v>1.029505107781585</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180355766</v>
       </c>
       <c r="F20">
-        <v>0.9624160356190353</v>
+        <v>1.034374881460669</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027168034437873</v>
+        <v>1.031097884175135</v>
       </c>
       <c r="J20">
-        <v>0.9832171416644969</v>
+        <v>1.032455463984021</v>
       </c>
       <c r="K20">
-        <v>0.9968160288616517</v>
+        <v>1.03290149591582</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193490043</v>
       </c>
       <c r="M20">
-        <v>0.9771535949808424</v>
+        <v>1.03775410912628</v>
       </c>
       <c r="N20">
-        <v>0.9846134227822428</v>
+        <v>1.033921669167176</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9424772028017329</v>
+        <v>1.024399750707602</v>
       </c>
       <c r="D21">
-        <v>0.9743629263199337</v>
+        <v>1.028204874925067</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668255</v>
       </c>
       <c r="F21">
-        <v>0.9510596904026747</v>
+        <v>1.032485848652709</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023900770661667</v>
+        <v>1.030689616290198</v>
       </c>
       <c r="J21">
-        <v>0.974593614086154</v>
+        <v>1.031070181101726</v>
       </c>
       <c r="K21">
-        <v>0.9898468417809717</v>
+        <v>1.031814267039254</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198107</v>
       </c>
       <c r="M21">
-        <v>0.9670316115116506</v>
+        <v>1.036079114334926</v>
       </c>
       <c r="N21">
-        <v>0.975977648805606</v>
+        <v>1.032534419024294</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.935014847300118</v>
+        <v>1.023269479857593</v>
       </c>
       <c r="D22">
-        <v>0.9690315573433997</v>
+        <v>1.027384768325802</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241496</v>
       </c>
       <c r="F22">
-        <v>0.9435725672691444</v>
+        <v>1.031295398943178</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021731852574512</v>
+        <v>1.03043033415122</v>
       </c>
       <c r="J22">
-        <v>0.9688981927027214</v>
+        <v>1.030195921039083</v>
       </c>
       <c r="K22">
-        <v>0.9852425225200671</v>
+        <v>1.031127493347557</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.991467000034148</v>
       </c>
       <c r="M22">
-        <v>0.960351341760752</v>
+        <v>1.035022792138787</v>
       </c>
       <c r="N22">
-        <v>0.9702741392705354</v>
+        <v>1.031658917412082</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9390069384548174</v>
+        <v>1.023868950835941</v>
       </c>
       <c r="D23">
-        <v>0.9718823348202091</v>
+        <v>1.027819771542369</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636459</v>
       </c>
       <c r="F23">
-        <v>0.9475769043789937</v>
+        <v>1.031926743254572</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02289320096564</v>
+        <v>1.030568031018714</v>
       </c>
       <c r="J23">
-        <v>0.9719451824903125</v>
+        <v>1.030659697030915</v>
       </c>
       <c r="K23">
-        <v>0.9877058937730239</v>
+        <v>1.031491870139879</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887607</v>
       </c>
       <c r="M23">
-        <v>0.9639247879768089</v>
+        <v>1.035583074840069</v>
       </c>
       <c r="N23">
-        <v>0.9733254561331194</v>
+        <v>1.032123352019018</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9539644282330808</v>
+        <v>1.02622259390992</v>
       </c>
       <c r="D24">
-        <v>0.9825894740154093</v>
+        <v>1.029526862945809</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347241</v>
       </c>
       <c r="F24">
-        <v>0.9626010402261869</v>
+        <v>1.034406505945065</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027221011371964</v>
+        <v>1.031104685235741</v>
       </c>
       <c r="J24">
-        <v>0.9833574578964377</v>
+        <v>1.032478633649453</v>
       </c>
       <c r="K24">
-        <v>0.9969293958633855</v>
+        <v>1.032919669982897</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766438</v>
       </c>
       <c r="M24">
-        <v>0.9773183756523097</v>
+        <v>1.037782137569758</v>
       </c>
       <c r="N24">
-        <v>0.9847539382793273</v>
+        <v>1.033944871736189</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9699870389834541</v>
+        <v>1.028941066782685</v>
       </c>
       <c r="D25">
-        <v>0.994099117671024</v>
+        <v>1.031496818303435</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607046</v>
       </c>
       <c r="F25">
-        <v>0.9787328742203047</v>
+        <v>1.037272669910775</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031804648361222</v>
+        <v>1.031716292813066</v>
       </c>
       <c r="J25">
-        <v>0.9955684655809288</v>
+        <v>1.034575484359844</v>
       </c>
       <c r="K25">
-        <v>1.00678973316069</v>
+        <v>1.034562932959373</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426411</v>
       </c>
       <c r="M25">
-        <v>0.9916705575730342</v>
+        <v>1.040320578192477</v>
       </c>
       <c r="N25">
-        <v>0.9969822869953532</v>
+        <v>1.036044700215102</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_242/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_242/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031099476996261</v>
+        <v>0.9818802778766778</v>
       </c>
       <c r="D2">
-        <v>1.033059460869538</v>
+        <v>1.002664538510232</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.039549971794471</v>
+        <v>0.9907341297823209</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032195244410111</v>
+        <v>1.035161150542834</v>
       </c>
       <c r="J2">
-        <v>1.036237070836587</v>
+        <v>1.004616791539393</v>
       </c>
       <c r="K2">
-        <v>1.03586290053958</v>
+        <v>1.014086876478985</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.042334841754393</v>
+        <v>1.002324080310986</v>
       </c>
       <c r="N2">
-        <v>1.037708646335244</v>
+        <v>1.006043462614535</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03266120905759</v>
+        <v>0.9900772535063144</v>
       </c>
       <c r="D3">
-        <v>1.034189247763477</v>
+        <v>1.008576674004821</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.041198672110288</v>
+        <v>0.9990198467101804</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032537926270266</v>
+        <v>1.037446283141941</v>
       </c>
       <c r="J3">
-        <v>1.037437417667727</v>
+        <v>1.010842126920709</v>
       </c>
       <c r="K3">
-        <v>1.03680073182416</v>
+        <v>1.019100978372703</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.043791575183113</v>
+        <v>1.009665284161932</v>
       </c>
       <c r="N3">
-        <v>1.03891069779655</v>
+        <v>1.012277638686149</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033669303318899</v>
+        <v>0.9951991884508574</v>
       </c>
       <c r="D4">
-        <v>1.034918109417741</v>
+        <v>1.012273818367673</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.042263340537683</v>
+        <v>1.004203496724898</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032757334002351</v>
+        <v>1.038860598141669</v>
       </c>
       <c r="J4">
-        <v>1.038211353811081</v>
+        <v>1.014726501859484</v>
       </c>
       <c r="K4">
-        <v>1.037404813188469</v>
+        <v>1.022226332247749</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.044731568400971</v>
+        <v>1.014251452611629</v>
       </c>
       <c r="N4">
-        <v>1.039685733017999</v>
+        <v>1.016167529882881</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034092530392379</v>
+        <v>0.9973116242082262</v>
       </c>
       <c r="D5">
-        <v>1.035224006349702</v>
+        <v>1.01379917393819</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.042710423556299</v>
+        <v>1.006342844158333</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032849017922949</v>
+        <v>1.039440573369863</v>
       </c>
       <c r="J5">
-        <v>1.038536062160324</v>
+        <v>1.016327122360858</v>
       </c>
       <c r="K5">
-        <v>1.037658115128601</v>
+        <v>1.023513362446883</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.045126126846363</v>
+        <v>1.016142619677327</v>
       </c>
       <c r="N5">
-        <v>1.040010902490343</v>
+        <v>1.017770423448961</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034163558635067</v>
+        <v>0.9976639926236276</v>
       </c>
       <c r="D6">
-        <v>1.035275337699553</v>
+        <v>1.014053641304779</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.042785461559744</v>
+        <v>1.006699786211508</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032864379586713</v>
+        <v>1.039537119140373</v>
       </c>
       <c r="J6">
-        <v>1.038590543988537</v>
+        <v>1.016594031619157</v>
       </c>
       <c r="K6">
-        <v>1.037700607482237</v>
+        <v>1.023727929783277</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.045192339196916</v>
+        <v>1.016458059648381</v>
       </c>
       <c r="N6">
-        <v>1.040065461689001</v>
+        <v>1.018037711749021</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033674960746918</v>
+        <v>0.9952275718920891</v>
       </c>
       <c r="D7">
-        <v>1.034922198847507</v>
+        <v>1.012294311623183</v>
       </c>
       <c r="E7">
-        <v>0.9943035907978915</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.042269316445937</v>
+        <v>1.004232236038069</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032758561264584</v>
+        <v>1.038868404183592</v>
       </c>
       <c r="J7">
-        <v>1.03821569513967</v>
+        <v>1.014748014045127</v>
       </c>
       <c r="K7">
-        <v>1.037408200381651</v>
+        <v>1.02224363312608</v>
       </c>
       <c r="L7">
-        <v>0.9968970624459041</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.044736842911336</v>
+        <v>1.014276864277766</v>
       </c>
       <c r="N7">
-        <v>1.039690080511773</v>
+        <v>1.016189072618295</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031627785747098</v>
+        <v>0.9846899307937759</v>
       </c>
       <c r="D8">
-        <v>1.033441734397106</v>
+        <v>1.004690309872717</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674294</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.040107610003861</v>
+        <v>0.9935728448114023</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032311539556074</v>
+        <v>1.035947243586929</v>
       </c>
       <c r="J8">
-        <v>1.036643311976479</v>
+        <v>1.006751762970459</v>
       </c>
       <c r="K8">
-        <v>1.036180420014114</v>
+        <v>1.015807120558551</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591053</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.042827698432624</v>
+        <v>1.004840585631908</v>
       </c>
       <c r="N8">
-        <v>1.038115464384135</v>
+        <v>1.008181465949918</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028001137084611</v>
+        <v>0.964586352532977</v>
       </c>
       <c r="D9">
-        <v>1.03081591638679</v>
+        <v>0.9902154437963857</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.036281422448705</v>
+        <v>0.9732908496655508</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031505855984688</v>
+        <v>1.030266752215883</v>
       </c>
       <c r="J9">
-        <v>1.033850990298999</v>
+        <v>0.9914547693830844</v>
       </c>
       <c r="K9">
-        <v>1.033995498571133</v>
+        <v>1.003469288777971</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.039443082463413</v>
+        <v>0.9868326569289053</v>
       </c>
       <c r="N9">
-        <v>1.035319177289589</v>
+        <v>0.9928627488770599</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025569723903455</v>
+        <v>0.9499237793949107</v>
       </c>
       <c r="D10">
-        <v>1.029053472604366</v>
+        <v>0.9796931881906474</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.033718493103844</v>
+        <v>0.9585391080791619</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030956469968395</v>
+        <v>1.026055941495526</v>
       </c>
       <c r="J10">
-        <v>1.031974400111391</v>
+        <v>0.9802754034395527</v>
       </c>
       <c r="K10">
-        <v>1.032524075292664</v>
+        <v>0.9944390302060148</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.037172263087407</v>
+        <v>0.9736995978014682</v>
       </c>
       <c r="N10">
-        <v>1.033439922128668</v>
+        <v>0.9816675069515972</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024513502550762</v>
+        <v>0.9432132424400413</v>
       </c>
       <c r="D11">
-        <v>1.028287395052013</v>
+        <v>0.9748893433412102</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.032605676725074</v>
+        <v>0.9517986118289226</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030715630640543</v>
+        <v>1.024114224913947</v>
       </c>
       <c r="J11">
-        <v>1.031158128570329</v>
+        <v>0.9751553026256808</v>
       </c>
       <c r="K11">
-        <v>1.031883327998885</v>
+        <v>0.9903008721884164</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.03618540938221</v>
+        <v>0.9676906186498293</v>
       </c>
       <c r="N11">
-        <v>1.032622491388389</v>
+        <v>0.9765401350072859</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024120650081925</v>
+        <v>0.9406598952855845</v>
       </c>
       <c r="D12">
-        <v>1.02800239134057</v>
+        <v>0.9730636107871367</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.0321918548374</v>
+        <v>0.9492356068133947</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030625725204026</v>
+        <v>1.023373365121364</v>
       </c>
       <c r="J12">
-        <v>1.030854363355786</v>
+        <v>0.9732067210712353</v>
       </c>
       <c r="K12">
-        <v>1.031644775309793</v>
+        <v>0.9887257274751441</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.035818298327426</v>
+        <v>0.9654045778748523</v>
       </c>
       <c r="N12">
-        <v>1.032318294792399</v>
+        <v>0.9745887862435277</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024204942238097</v>
+        <v>0.9412104616440473</v>
       </c>
       <c r="D13">
-        <v>1.028063546033208</v>
+        <v>0.9734571832535311</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.032280642636774</v>
+        <v>0.9497881751500737</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030645030509857</v>
+        <v>1.023533202650125</v>
       </c>
       <c r="J13">
-        <v>1.030919547789059</v>
+        <v>0.9736268994551168</v>
       </c>
       <c r="K13">
-        <v>1.031695970718196</v>
+        <v>0.989065391072448</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.035897069973061</v>
+        <v>0.9658974874256041</v>
       </c>
       <c r="N13">
-        <v>1.032383571795045</v>
+        <v>0.9750095613289093</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024481040028158</v>
+        <v>0.9430034625080975</v>
       </c>
       <c r="D14">
-        <v>1.028263845753244</v>
+        <v>0.9747392982445152</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.032571479795479</v>
+        <v>0.9515880024666671</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030708208168187</v>
+        <v>1.024053397129465</v>
       </c>
       <c r="J14">
-        <v>1.031133030841952</v>
+        <v>0.9749952164277672</v>
       </c>
       <c r="K14">
-        <v>1.031863620438501</v>
+        <v>0.9901714706380155</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.036155075154557</v>
+        <v>0.9675027920766697</v>
       </c>
       <c r="N14">
-        <v>1.03259735801836</v>
+        <v>0.9763798214686092</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024651083037384</v>
+        <v>0.9440999276852734</v>
       </c>
       <c r="D15">
-        <v>1.028387197347261</v>
+        <v>0.9755236331796273</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.03275061115884</v>
+        <v>0.9526888741884211</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030747074671647</v>
+        <v>1.024371246358016</v>
       </c>
       <c r="J15">
-        <v>1.031264489533606</v>
+        <v>0.9758319304915494</v>
       </c>
       <c r="K15">
-        <v>1.031966841759899</v>
+        <v>0.9908477966316701</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.036313967445877</v>
+        <v>0.9684845283821876</v>
       </c>
       <c r="N15">
-        <v>1.032729003396434</v>
+        <v>0.9772177237623341</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025639748980564</v>
+        <v>0.9503609931067009</v>
       </c>
       <c r="D16">
-        <v>1.029104252237546</v>
+        <v>0.9800064458472939</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.033792281592267</v>
+        <v>0.9589785061455118</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030972391193527</v>
+        <v>1.026182162630165</v>
       </c>
       <c r="J16">
-        <v>1.032028494618229</v>
+        <v>0.9806089318745642</v>
       </c>
       <c r="K16">
-        <v>1.032566522808608</v>
+        <v>0.9947085526566763</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.037237680937575</v>
+        <v>0.9740911452453623</v>
       </c>
       <c r="N16">
-        <v>1.03349409345591</v>
+        <v>0.9820015090352427</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026258992327354</v>
+        <v>0.9541873805908651</v>
       </c>
       <c r="D17">
-        <v>1.029553251984735</v>
+        <v>0.982749361703804</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.034444867276625</v>
+        <v>0.9628252388158481</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03111293358686</v>
+        <v>1.027285200257761</v>
       </c>
       <c r="J17">
-        <v>1.032506738099716</v>
+        <v>0.9835274929848993</v>
       </c>
       <c r="K17">
-        <v>1.032941714378441</v>
+        <v>0.9970667723421657</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.037816136235337</v>
+        <v>0.9775180605559205</v>
       </c>
       <c r="N17">
-        <v>1.033973016097996</v>
+        <v>0.9849242148371182</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026619859035813</v>
+        <v>0.9563848509623117</v>
       </c>
       <c r="D18">
-        <v>1.029814864036049</v>
+        <v>0.9843256791718831</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.03482521603226</v>
+        <v>0.9650353977190106</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031194625046711</v>
+        <v>1.027917297075198</v>
       </c>
       <c r="J18">
-        <v>1.0327853335672</v>
+        <v>0.9852032471827903</v>
       </c>
       <c r="K18">
-        <v>1.033160209384191</v>
+        <v>0.9984205703956116</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.038153195456741</v>
+        <v>0.97948625217469</v>
       </c>
       <c r="N18">
-        <v>1.034252007202998</v>
+        <v>0.9866023487981818</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026742850121464</v>
+        <v>0.9571284756720261</v>
       </c>
       <c r="D19">
-        <v>1.029904019425503</v>
+        <v>0.9848592789899823</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684961</v>
       </c>
       <c r="F19">
-        <v>1.034954855777196</v>
+        <v>0.9657834836021638</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031222431567065</v>
+        <v>1.02813096221706</v>
       </c>
       <c r="J19">
-        <v>1.032880267374028</v>
+        <v>0.9857702579313248</v>
       </c>
       <c r="K19">
-        <v>1.033234651768917</v>
+        <v>0.9988786032118576</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816586</v>
       </c>
       <c r="M19">
-        <v>1.038268065980337</v>
+        <v>0.9801523083346919</v>
       </c>
       <c r="N19">
-        <v>1.034347075826722</v>
+        <v>0.9871701647670164</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026192587344926</v>
+        <v>0.9537804463376747</v>
       </c>
       <c r="D20">
-        <v>1.029505107781585</v>
+        <v>0.9824575396156017</v>
       </c>
       <c r="E20">
-        <v>0.9894336180355766</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.034374881460669</v>
+        <v>0.9624160356190355</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031097884175135</v>
+        <v>1.027168034437873</v>
       </c>
       <c r="J20">
-        <v>1.032455463984021</v>
+        <v>0.9832171416644975</v>
       </c>
       <c r="K20">
-        <v>1.03290149591582</v>
+        <v>0.9968160288616519</v>
       </c>
       <c r="L20">
-        <v>0.9929783193490043</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.03775410912628</v>
+        <v>0.9771535949808428</v>
       </c>
       <c r="N20">
-        <v>1.033921669167176</v>
+        <v>0.9846134227822433</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024399750707602</v>
+        <v>0.9424772028017342</v>
       </c>
       <c r="D21">
-        <v>1.028204874925067</v>
+        <v>0.9743629263199347</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668255</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.032485848652709</v>
+        <v>0.9510596904026759</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030689616290198</v>
+        <v>1.023900770661667</v>
       </c>
       <c r="J21">
-        <v>1.031070181101726</v>
+        <v>0.9745936140861552</v>
       </c>
       <c r="K21">
-        <v>1.031814267039254</v>
+        <v>0.9898468417809727</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198107</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.036079114334926</v>
+        <v>0.9670316115116518</v>
       </c>
       <c r="N21">
-        <v>1.032534419024294</v>
+        <v>0.9759776488056076</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023269479857593</v>
+        <v>0.9350148473001165</v>
       </c>
       <c r="D22">
-        <v>1.027384768325802</v>
+        <v>0.9690315573433979</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241496</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.031295398943178</v>
+        <v>0.9435725672691426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03043033415122</v>
+        <v>1.021731852574511</v>
       </c>
       <c r="J22">
-        <v>1.030195921039083</v>
+        <v>0.9688981927027198</v>
       </c>
       <c r="K22">
-        <v>1.031127493347557</v>
+        <v>0.9852425225200654</v>
       </c>
       <c r="L22">
-        <v>0.991467000034148</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.035022792138787</v>
+        <v>0.9603513417607501</v>
       </c>
       <c r="N22">
-        <v>1.031658917412082</v>
+        <v>0.9702741392705337</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023868950835941</v>
+        <v>0.9390069384548176</v>
       </c>
       <c r="D23">
-        <v>1.027819771542369</v>
+        <v>0.9718823348202091</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636459</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.031926743254572</v>
+        <v>0.9475769043789937</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030568031018714</v>
+        <v>1.02289320096564</v>
       </c>
       <c r="J23">
-        <v>1.030659697030915</v>
+        <v>0.9719451824903126</v>
       </c>
       <c r="K23">
-        <v>1.031491870139879</v>
+        <v>0.9877058937730239</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887607</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.035583074840069</v>
+        <v>0.9639247879768091</v>
       </c>
       <c r="N23">
-        <v>1.032123352019018</v>
+        <v>0.9733254561331197</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02622259390992</v>
+        <v>0.953964428233079</v>
       </c>
       <c r="D24">
-        <v>1.029526862945809</v>
+        <v>0.9825894740154079</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347241</v>
+        <v>0.938164042401182</v>
       </c>
       <c r="F24">
-        <v>1.034406505945065</v>
+        <v>0.9626010402261856</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031104685235741</v>
+        <v>1.027221011371964</v>
       </c>
       <c r="J24">
-        <v>1.032478633649453</v>
+        <v>0.9833574578964359</v>
       </c>
       <c r="K24">
-        <v>1.032919669982897</v>
+        <v>0.996929395863384</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766438</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.037782137569758</v>
+        <v>0.9773183756523087</v>
       </c>
       <c r="N24">
-        <v>1.033944871736189</v>
+        <v>0.9847539382793257</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028941066782685</v>
+        <v>0.9699870389834548</v>
       </c>
       <c r="D25">
-        <v>1.031496818303435</v>
+        <v>0.9940991176710244</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607046</v>
+        <v>0.9463835801718021</v>
       </c>
       <c r="F25">
-        <v>1.037272669910775</v>
+        <v>0.9787328742203052</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031716292813066</v>
+        <v>1.031804648361222</v>
       </c>
       <c r="J25">
-        <v>1.034575484359844</v>
+        <v>0.9955684655809296</v>
       </c>
       <c r="K25">
-        <v>1.034562932959373</v>
+        <v>1.00678973316069</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426411</v>
+        <v>0.9598754494005834</v>
       </c>
       <c r="M25">
-        <v>1.040320578192477</v>
+        <v>0.9916705575730349</v>
       </c>
       <c r="N25">
-        <v>1.036044700215102</v>
+        <v>0.9969822869953535</v>
       </c>
     </row>
   </sheetData>
